--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N2">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q2">
-        <v>7026.92383477398</v>
+        <v>1302.075576426794</v>
       </c>
       <c r="R2">
-        <v>63242.31451296582</v>
+        <v>11718.68018784115</v>
       </c>
       <c r="S2">
-        <v>0.04801920887264323</v>
+        <v>0.02254256690435615</v>
       </c>
       <c r="T2">
-        <v>0.04801920887264323</v>
+        <v>0.02254256690435615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P3">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q3">
-        <v>7926.938224400471</v>
+        <v>1471.920650791778</v>
       </c>
       <c r="R3">
-        <v>71342.44401960424</v>
+        <v>13247.285857126</v>
       </c>
       <c r="S3">
-        <v>0.05416955004326857</v>
+        <v>0.02548305977709321</v>
       </c>
       <c r="T3">
-        <v>0.05416955004326858</v>
+        <v>0.02548305977709321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N4">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O4">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P4">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q4">
-        <v>3716.94431816354</v>
+        <v>665.0133896229509</v>
       </c>
       <c r="R4">
-        <v>33452.49886347186</v>
+        <v>5985.120506606558</v>
       </c>
       <c r="S4">
-        <v>0.02540012241183206</v>
+        <v>0.01151324016767691</v>
       </c>
       <c r="T4">
-        <v>0.02540012241183207</v>
+        <v>0.01151324016767691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N5">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O5">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P5">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q5">
-        <v>10430.08402890335</v>
+        <v>1537.234319168035</v>
       </c>
       <c r="R5">
-        <v>93870.75626013015</v>
+        <v>13835.10887251231</v>
       </c>
       <c r="S5">
-        <v>0.07127505510513901</v>
+        <v>0.02661382189704722</v>
       </c>
       <c r="T5">
-        <v>0.07127505510513901</v>
+        <v>0.02661382189704722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N6">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q6">
-        <v>7618.478324889873</v>
+        <v>7602.567033157186</v>
       </c>
       <c r="R6">
-        <v>68566.30492400886</v>
+        <v>68423.10329841467</v>
       </c>
       <c r="S6">
-        <v>0.05206165750142343</v>
+        <v>0.1316216808705603</v>
       </c>
       <c r="T6">
-        <v>0.05206165750142343</v>
+        <v>0.1316216808705603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P7">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q7">
         <v>8594.259517440532</v>
@@ -883,10 +883,10 @@
         <v>77348.33565696479</v>
       </c>
       <c r="S7">
-        <v>0.05872975893539808</v>
+        <v>0.1487906490781145</v>
       </c>
       <c r="T7">
-        <v>0.05872975893539809</v>
+        <v>0.1487906490781145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N8">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O8">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P8">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q8">
-        <v>4029.85152373753</v>
+        <v>3882.884345645978</v>
       </c>
       <c r="R8">
-        <v>36268.66371363778</v>
+        <v>34945.9591108138</v>
       </c>
       <c r="S8">
-        <v>0.02753840607841401</v>
+        <v>0.06722357882159595</v>
       </c>
       <c r="T8">
-        <v>0.02753840607841401</v>
+        <v>0.06722357882159596</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N9">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O9">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P9">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q9">
-        <v>11308.13012484233</v>
+        <v>8975.613373546603</v>
       </c>
       <c r="R9">
-        <v>101773.1711235809</v>
+        <v>80780.52036191942</v>
       </c>
       <c r="S9">
-        <v>0.07727527367475708</v>
+        <v>0.1553929500283379</v>
       </c>
       <c r="T9">
-        <v>0.07727527367475709</v>
+        <v>0.1553929500283379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N10">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q10">
-        <v>2291.662939796587</v>
+        <v>2405.921501635805</v>
       </c>
       <c r="R10">
-        <v>20624.96645816928</v>
+        <v>21653.29351472225</v>
       </c>
       <c r="S10">
-        <v>0.01566031509082487</v>
+        <v>0.04165322458938189</v>
       </c>
       <c r="T10">
-        <v>0.01566031509082487</v>
+        <v>0.04165322458938189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>194.521294</v>
       </c>
       <c r="O11">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P11">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q11">
-        <v>2585.181080947325</v>
+        <v>2719.754218998522</v>
       </c>
       <c r="R11">
-        <v>23266.62972852592</v>
+        <v>24477.7879709867</v>
       </c>
       <c r="S11">
-        <v>0.01766610158563189</v>
+        <v>0.04708654593877647</v>
       </c>
       <c r="T11">
-        <v>0.0176661015856319</v>
+        <v>0.04708654593877647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N12">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O12">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P12">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q12">
-        <v>1212.192382258382</v>
+        <v>1228.784290202467</v>
       </c>
       <c r="R12">
-        <v>10909.73144032544</v>
+        <v>11059.05861182221</v>
       </c>
       <c r="S12">
-        <v>0.008283641685347013</v>
+        <v>0.02127368992583839</v>
       </c>
       <c r="T12">
-        <v>0.008283641685347015</v>
+        <v>0.02127368992583839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N13">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O13">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P13">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q13">
-        <v>3401.522143973955</v>
+        <v>2840.43811933584</v>
       </c>
       <c r="R13">
-        <v>30613.6992957656</v>
+        <v>25563.94307402256</v>
       </c>
       <c r="S13">
-        <v>0.0232446524477891</v>
+        <v>0.04917592150720423</v>
       </c>
       <c r="T13">
-        <v>0.0232446524477891</v>
+        <v>0.04917592150720423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N14">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q14">
-        <v>18398.27000865046</v>
+        <v>3803.016153965219</v>
       </c>
       <c r="R14">
-        <v>165584.4300778541</v>
+        <v>34227.14538568697</v>
       </c>
       <c r="S14">
-        <v>0.1257264759393953</v>
+        <v>0.06584083723033268</v>
       </c>
       <c r="T14">
-        <v>0.1257264759393953</v>
+        <v>0.06584083723033268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>194.521294</v>
       </c>
       <c r="O15">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P15">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q15">
-        <v>20754.73610126345</v>
+        <v>4299.088404436291</v>
       </c>
       <c r="R15">
-        <v>186792.624911371</v>
+        <v>38691.79563992662</v>
       </c>
       <c r="S15">
-        <v>0.1418296300596255</v>
+        <v>0.07442923416987653</v>
       </c>
       <c r="T15">
-        <v>0.1418296300596255</v>
+        <v>0.07442923416987653</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N16">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O16">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P16">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q16">
-        <v>9731.903572694921</v>
+        <v>1942.327088477908</v>
       </c>
       <c r="R16">
-        <v>87587.13215425429</v>
+        <v>17480.94379630117</v>
       </c>
       <c r="S16">
-        <v>0.06650396693828566</v>
+        <v>0.03362710977369924</v>
       </c>
       <c r="T16">
-        <v>0.06650396693828567</v>
+        <v>0.03362710977369924</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N17">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O17">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P17">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q17">
-        <v>27308.6071072875</v>
+        <v>4489.852243653113</v>
       </c>
       <c r="R17">
-        <v>245777.4639655875</v>
+        <v>40408.67019287802</v>
       </c>
       <c r="S17">
-        <v>0.1866161836302253</v>
+        <v>0.07773188932010837</v>
       </c>
       <c r="T17">
-        <v>0.1866161836302253</v>
+        <v>0.07773188932010837</v>
       </c>
     </row>
   </sheetData>
